--- a/src/main/resources/examples/加气站.xlsx
+++ b/src/main/resources/examples/加气站.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab29d1961e783089/修改后模板/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_62D425CD0F9C8BD2C0BBB331F6DCD5D52885C3E6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1DC4A9E6-ECDE-4345-9A82-E82731C37438}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="11850"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,28 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>区县代码</t>
-  </si>
-  <si>
-    <t>SCC-TJ</t>
-  </si>
-  <si>
-    <t>加油站名称</t>
-  </si>
-  <si>
-    <t>加油站地址</t>
-  </si>
-  <si>
-    <t>经度</t>
-  </si>
-  <si>
-    <t>纬度</t>
-  </si>
-  <si>
-    <t>加油站类别</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>中国石油山东路加油站</t>
   </si>
@@ -48,46 +28,81 @@
     <t>山东路5号(近八一礼堂)</t>
   </si>
   <si>
-    <t>中国石油</t>
+    <t>1209321002</t>
+  </si>
+  <si>
+    <t>天然气</t>
+  </si>
+  <si>
+    <t>储罐容量（m3）</t>
+  </si>
+  <si>
+    <t>储罐每次充油量（m3）</t>
+  </si>
+  <si>
+    <t>储罐年充油次数</t>
+  </si>
+  <si>
+    <t>加油枪总个数</t>
+  </si>
+  <si>
+    <t>储罐数量</t>
+  </si>
+  <si>
+    <t>SCC编码</t>
   </si>
   <si>
     <t>年份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>燃料类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>年销售量（吨）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1209321002</t>
-  </si>
-  <si>
-    <t>天然气</t>
-  </si>
-  <si>
-    <t>储罐容量（m3）</t>
-  </si>
-  <si>
-    <t>储罐每次充油量（m3）</t>
-  </si>
-  <si>
-    <t>储罐年充油次数</t>
-  </si>
-  <si>
-    <t>加油枪总个数</t>
-  </si>
-  <si>
-    <t>储罐数量</t>
+  </si>
+  <si>
+    <t>区县编码</t>
+  </si>
+  <si>
+    <t>企业名称</t>
+  </si>
+  <si>
+    <t>组织机构代码</t>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业经度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业纬度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在功能区</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天然气种类（天然气，液化石油气）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽油/柴油的销售量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vocs排放量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,6 +114,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -125,27 +141,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -155,19 +156,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
@@ -466,126 +473,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="35.25" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="5.734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.41796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.62890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3671875" customWidth="1"/>
+    <col min="7" max="7" width="12.62890625" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5234375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.1015625" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.83984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.62890625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2015</v>
+      </c>
+      <c r="C2">
+        <v>650100</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G2">
+        <v>117.200273999999</v>
+      </c>
+      <c r="H2">
+        <v>39.133594000000002</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B2" s="1">
-        <v>650100</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1">
-        <v>117.200273999999</v>
-      </c>
-      <c r="G2" s="1">
-        <v>39.133594000000002</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="K2" s="5">
+        <v>2432</v>
+      </c>
+      <c r="L2">
         <v>1818</v>
       </c>
-      <c r="K2" s="3">
+      <c r="M2">
         <v>1818</v>
       </c>
-      <c r="L2" s="3">
+      <c r="N2">
         <v>1818</v>
       </c>
-      <c r="M2" s="3">
+      <c r="O2">
         <v>1818</v>
       </c>
-      <c r="N2" s="3">
+      <c r="P2">
         <v>1818</v>
       </c>
-      <c r="O2" s="3">
-        <v>1818</v>
+      <c r="Q2">
+        <v>432423</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
-      <formula1>"天然气,液化石油气"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/examples/加气站.xlsx
+++ b/src/main/resources/examples/加气站.xlsx
@@ -1,36 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab29d1961e783089/修改后模板/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yang-\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_62D425CD0F9C8BD2C0BBB331F6DCD5D52885C3E6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1DC4A9E6-ECDE-4345-9A82-E82731C37438}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05BF2D5-435B-4641-B534-67C3177A38A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="加气站" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>中国石油山东路加油站</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>山东路5号(近八一礼堂)</t>
   </si>
   <si>
-    <t>1209321002</t>
-  </si>
-  <si>
     <t>天然气</t>
   </si>
   <si>
@@ -97,6 +91,22 @@
   <si>
     <t>Vocs排放量</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东路6号(近八一礼堂)</t>
+  </si>
+  <si>
+    <t>山东路7号(近八一礼堂)</t>
+  </si>
+  <si>
+    <t>中国石油山东路加油站1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国石油山东路加油站2</t>
+  </si>
+  <si>
+    <t>中国石油山东路加油站3</t>
   </si>
 </sst>
 </file>
@@ -474,101 +484,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="5.734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.41796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.62890625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3671875" customWidth="1"/>
-    <col min="7" max="7" width="12.62890625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5234375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.1015625" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.125" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.83984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.62890625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="J1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>2</v>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1513500010</v>
       </c>
       <c r="B2">
         <v>2015</v>
       </c>
       <c r="C2">
-        <v>650100</v>
-      </c>
-      <c r="D2" t="s">
+        <v>210101</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
       </c>
       <c r="G2">
         <v>117.200273999999</v>
@@ -577,10 +588,10 @@
         <v>39.133594000000002</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2" s="5">
         <v>2432</v>
@@ -601,6 +612,112 @@
         <v>1818</v>
       </c>
       <c r="Q2">
+        <v>432423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1513500010</v>
+      </c>
+      <c r="B3">
+        <v>2016</v>
+      </c>
+      <c r="C3">
+        <v>210102</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>117.200273999999</v>
+      </c>
+      <c r="H3">
+        <v>39.133594000000002</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5">
+        <v>2432</v>
+      </c>
+      <c r="L3">
+        <v>1818</v>
+      </c>
+      <c r="M3">
+        <v>1818</v>
+      </c>
+      <c r="N3">
+        <v>1818</v>
+      </c>
+      <c r="O3">
+        <v>1818</v>
+      </c>
+      <c r="P3">
+        <v>1818</v>
+      </c>
+      <c r="Q3">
+        <v>432423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1513500010</v>
+      </c>
+      <c r="B4">
+        <v>2017</v>
+      </c>
+      <c r="C4">
+        <v>210103</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>117.200273999999</v>
+      </c>
+      <c r="H4">
+        <v>39.133594000000002</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
+        <v>2432</v>
+      </c>
+      <c r="L4">
+        <v>1818</v>
+      </c>
+      <c r="M4">
+        <v>1818</v>
+      </c>
+      <c r="N4">
+        <v>1818</v>
+      </c>
+      <c r="O4">
+        <v>1818</v>
+      </c>
+      <c r="P4">
+        <v>1818</v>
+      </c>
+      <c r="Q4">
         <v>432423</v>
       </c>
     </row>
